--- a/pkg.xlsx
+++ b/pkg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus18.TRANSITUS18-PC\Documents\test\ManasProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230A2E13-E59F-4C7B-B8DA-51693947EF4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E0BEB1-C1D1-472B-8D58-6AEAED93A0E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Approved</t>
+  </si>
+  <si>
+    <t>Rejected</t>
   </si>
 </sst>
 </file>
@@ -699,6 +702,9 @@
       <c r="H7" t="s">
         <v>36</v>
       </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F8" t="s">

--- a/pkg.xlsx
+++ b/pkg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus18.TRANSITUS18-PC\Documents\test\ManasProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E0BEB1-C1D1-472B-8D58-6AEAED93A0E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6657A22-67EF-437B-AEB7-602E3964A004}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Rejected</t>
+  </si>
+  <si>
+    <t>Not Required</t>
   </si>
 </sst>
 </file>
@@ -552,7 +555,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,6 +708,9 @@
       <c r="I7" t="s">
         <v>52</v>
       </c>
+      <c r="J7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
